--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_24_45.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>145511.0812990498</v>
+        <v>25135310.2022109</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>145511.0812990498</v>
+        <v>25135310.2022109</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1939.018014002213</v>
+        <v>117781.7313565902</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1939.018014002213</v>
+        <v>117781.7313565902</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958181307.340144</v>
+        <v>38435765.28421176</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6972.16227799281</v>
+        <v>788924.5401411861</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>13921.28992748996</v>
+        <v>1573265.189211733</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20870.41757698709</v>
+        <v>2357605.838282281</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>27949.22456248448</v>
+        <v>3144262.65688883</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>35022.0522839819</v>
+        <v>3929729.601959378</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>42094.8800054793</v>
+        <v>4715196.547029925</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>49167.7077269767</v>
+        <v>5500663.492100469</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>56240.53544847409</v>
+        <v>6286130.437171013</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>63395.47194847393</v>
+        <v>7072609.986108088</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>70546.92160933037</v>
+        <v>7858395.654055635</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>77698.37127018682</v>
+        <v>8644181.322003188</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>84709.43338763833</v>
+        <v>9427862.482971167</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>91726.49550508983</v>
+        <v>10212737.64393915</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>98743.55762254132</v>
+        <v>10997612.80490713</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>105760.6197399928</v>
+        <v>11782487.96587511</v>
       </c>
     </row>
   </sheetData>
